--- a/vgp_database/Ramsay_Island_lavas.xlsx
+++ b/vgp_database/Ramsay_Island_lavas.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
-  </si>
-  <si>
-    <t>R2.2</t>
+    <t>R2a</t>
+  </si>
+  <si>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
-  </si>
-  <si>
-    <t>R5.2</t>
+    <t>R5a</t>
+  </si>
+  <si>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -314,13 +314,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -352,7 +366,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -379,6 +393,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1150,7 +1167,7 @@
       <c r="AK8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AL8" s="21" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1166,31 +1183,31 @@
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>52.5447156255882</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>-131.363249177843</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>6.0</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="24">
         <v>354.4</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <v>77.0</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>195.0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>3.0</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1228,12 +1245,12 @@
       <c r="AD9" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
       <c r="AG9" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH9" s="26"/>
+      <c r="AH9" s="27"/>
       <c r="AI9" s="19" t="s">
         <v>46</v>
       </c>
@@ -1246,10 +1263,10 @@
       <c r="AL9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
+      <c r="AM9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="23"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="13">
@@ -1258,31 +1275,31 @@
       <c r="B10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>52.5447229819401</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>-131.362880837125</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>5.0</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="24">
         <v>349.9</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>70.2</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>496.0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>2.0</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -1320,12 +1337,12 @@
       <c r="AD10" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
       <c r="AG10" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH10" s="26"/>
+      <c r="AH10" s="27"/>
       <c r="AI10" s="19" t="s">
         <v>46</v>
       </c>
@@ -1338,10 +1355,10 @@
       <c r="AL10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
+      <c r="AM10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="13">
@@ -1350,31 +1367,31 @@
       <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>52.5448201619032</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>-131.362517321679</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>6.0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="24">
         <v>1.5</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>74.0</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <v>180.0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>3.0</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -1412,12 +1429,12 @@
       <c r="AD11" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
       <c r="AG11" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH11" s="26"/>
+      <c r="AH11" s="27"/>
       <c r="AI11" s="19" t="s">
         <v>46</v>
       </c>
@@ -1430,10 +1447,10 @@
       <c r="AL11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="22"/>
-      <c r="AQ11" s="22"/>
+      <c r="AM11" s="28"/>
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="13">
@@ -1442,31 +1459,31 @@
       <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="22">
         <v>52.545194168127</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>-131.361799933921</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>5.0</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="24">
         <v>356.6</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="24">
         <v>76.4</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>158.0</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>4.0</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -1504,12 +1521,12 @@
       <c r="AD12" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
       <c r="AG12" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH12" s="26"/>
+      <c r="AH12" s="27"/>
       <c r="AI12" s="19" t="s">
         <v>46</v>
       </c>
@@ -1522,10 +1539,10 @@
       <c r="AL12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="22"/>
-      <c r="AQ12" s="22"/>
+      <c r="AM12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="13">
@@ -1534,31 +1551,31 @@
       <c r="B13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="22">
         <v>52.5453885204446</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>-131.361072888683</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>5.0</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="24">
         <v>352.1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>81.3</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="23">
         <v>215.0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>4.0</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -1596,12 +1613,12 @@
       <c r="AD13" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
       <c r="AG13" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH13" s="26"/>
+      <c r="AH13" s="27"/>
       <c r="AI13" s="19" t="s">
         <v>46</v>
       </c>
@@ -1614,10 +1631,10 @@
       <c r="AL13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
+      <c r="AM13" s="28"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="13">
@@ -1626,31 +1643,31 @@
       <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="22">
         <v>52.5454930434785</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>-131.360341015772</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>5.0</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="24">
         <v>29.0</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <v>76.3</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>157.0</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>4.0</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -1688,12 +1705,12 @@
       <c r="AD14" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
       <c r="AG14" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH14" s="26"/>
+      <c r="AH14" s="27"/>
       <c r="AI14" s="19" t="s">
         <v>46</v>
       </c>
@@ -1706,10 +1723,10 @@
       <c r="AL14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="22"/>
-      <c r="AQ14" s="22"/>
+      <c r="AM14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="13">
@@ -1718,31 +1735,31 @@
       <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="22">
         <v>52.5455828683639</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>-131.360345836904</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>5.0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="24">
         <v>8.2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="24">
         <v>72.0</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>120.0</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>5.0</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
@@ -1780,12 +1797,12 @@
       <c r="AD15" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
       <c r="AG15" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH15" s="26"/>
+      <c r="AH15" s="27"/>
       <c r="AI15" s="19" t="s">
         <v>46</v>
       </c>
@@ -1798,10 +1815,10 @@
       <c r="AL15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
+      <c r="AM15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="13">
@@ -1810,31 +1827,31 @@
       <c r="B16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="22">
         <v>52.5470553252099</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>-131.358654845375</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>6.0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>13.4</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>64.1</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>231.0</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>3.0</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
@@ -1872,12 +1889,12 @@
       <c r="AD16" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
       <c r="AG16" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH16" s="26"/>
+      <c r="AH16" s="27"/>
       <c r="AI16" s="19" t="s">
         <v>46</v>
       </c>
@@ -1890,10 +1907,10 @@
       <c r="AL16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
+      <c r="AM16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="13">
@@ -1902,31 +1919,31 @@
       <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>52.5475117924488</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>-131.358310570157</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>5.0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>25.2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>62.6</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="23">
         <v>377.0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>3.0</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
@@ -1964,12 +1981,12 @@
       <c r="AD17" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
       <c r="AG17" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH17" s="26"/>
+      <c r="AH17" s="27"/>
       <c r="AI17" s="19" t="s">
         <v>46</v>
       </c>
@@ -1982,10 +1999,10 @@
       <c r="AL17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="22"/>
-      <c r="AQ17" s="22"/>
+      <c r="AM17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="13">
@@ -1994,31 +2011,31 @@
       <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="22">
         <v>52.5479623857281</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>-131.358260983274</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>5.0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>0.6</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="24">
         <v>60.4</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>434.0</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>2.0</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -2056,12 +2073,12 @@
       <c r="AD18" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
       <c r="AG18" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH18" s="26"/>
+      <c r="AH18" s="27"/>
       <c r="AI18" s="19" t="s">
         <v>46</v>
       </c>
@@ -2074,10 +2091,10 @@
       <c r="AL18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="22"/>
-      <c r="AQ18" s="22"/>
+      <c r="AM18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="13">
@@ -2086,31 +2103,31 @@
       <c r="B19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="22">
         <v>52.5484261920071</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>-131.35754832399</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>5.0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>10.2</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>61.6</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <v>448.0</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>2.0</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -2148,12 +2165,12 @@
       <c r="AD19" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
       <c r="AG19" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH19" s="26"/>
+      <c r="AH19" s="27"/>
       <c r="AI19" s="19" t="s">
         <v>46</v>
       </c>
@@ -2166,10 +2183,10 @@
       <c r="AL19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="22"/>
-      <c r="AQ19" s="22"/>
+      <c r="AM19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="13">
@@ -2178,31 +2195,31 @@
       <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="22">
         <v>52.5485306938786</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>-131.356816391682</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <v>5.0</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="24">
         <v>13.3</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="24">
         <v>50.2</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>303.0</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>3.0</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -2240,12 +2257,12 @@
       <c r="AD20" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
       <c r="AG20" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH20" s="26"/>
+      <c r="AH20" s="27"/>
       <c r="AI20" s="19" t="s">
         <v>46</v>
       </c>
@@ -2258,10 +2275,10 @@
       <c r="AL20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="22"/>
+      <c r="AM20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="13">
@@ -2270,31 +2287,31 @@
       <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="22">
         <v>52.5488148414845</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>-131.356094081762</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>5.0</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="24">
         <v>3.0</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="24">
         <v>63.0</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="23">
         <v>158.0</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>4.0</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -2332,12 +2349,12 @@
       <c r="AD21" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
       <c r="AG21" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH21" s="26"/>
+      <c r="AH21" s="27"/>
       <c r="AI21" s="19" t="s">
         <v>46</v>
       </c>
@@ -2350,10 +2367,10 @@
       <c r="AL21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="22"/>
-      <c r="AQ21" s="22"/>
+      <c r="AM21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="13">
@@ -2362,31 +2379,31 @@
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="22">
         <v>52.5493684602268</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>-131.355386197341</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>5.0</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <v>19.4</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
         <v>65.9</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="23">
         <v>263.0</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>4.0</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
@@ -2424,12 +2441,12 @@
       <c r="AD22" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
       <c r="AG22" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH22" s="26"/>
+      <c r="AH22" s="27"/>
       <c r="AI22" s="19" t="s">
         <v>46</v>
       </c>
@@ -2442,10 +2459,10 @@
       <c r="AL22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
+      <c r="AM22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="13">
@@ -2454,31 +2471,31 @@
       <c r="B23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="22">
         <v>52.5489222674949</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>-131.355214788092</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="23">
         <v>5.0</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="24">
         <v>17.8</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="24">
         <v>63.7</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="23">
         <v>230.0</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>4.0</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -2516,12 +2533,12 @@
       <c r="AD23" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
       <c r="AG23" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH23" s="26"/>
+      <c r="AH23" s="27"/>
       <c r="AI23" s="19" t="s">
         <v>46</v>
       </c>
@@ -2534,10 +2551,10 @@
       <c r="AL23" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="22"/>
+      <c r="AM23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="13">
@@ -2546,31 +2563,31 @@
       <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="22">
         <v>52.5494788130992</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <v>-131.354359537611</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="23">
         <v>5.0</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="24">
         <v>25.4</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="24">
         <v>72.1</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="23">
         <v>33.0</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>9.0</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
@@ -2608,12 +2625,12 @@
       <c r="AD24" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
       <c r="AG24" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH24" s="26"/>
+      <c r="AH24" s="27"/>
       <c r="AI24" s="19" t="s">
         <v>46</v>
       </c>
@@ -2626,10 +2643,10 @@
       <c r="AL24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
+      <c r="AM24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="13">
@@ -2638,31 +2655,31 @@
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="22">
         <v>52.5497600149375</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>-131.353784550122</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <v>5.0</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="24">
         <v>9.4</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="24">
         <v>63.0</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>51.0</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>8.0</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
@@ -2700,12 +2717,12 @@
       <c r="AD25" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
       <c r="AG25" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH25" s="26"/>
+      <c r="AH25" s="27"/>
       <c r="AI25" s="19" t="s">
         <v>46</v>
       </c>
@@ -2718,10 +2735,10 @@
       <c r="AL25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="22"/>
+      <c r="AM25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="13">
@@ -2730,31 +2747,31 @@
       <c r="B26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="22">
         <v>52.5498747487218</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>-131.35253684485</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>5.0</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="24">
         <v>329.4</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="24">
         <v>73.0</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>255.0</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>4.0</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
@@ -2792,12 +2809,12 @@
       <c r="AD26" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
       <c r="AG26" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH26" s="26"/>
+      <c r="AH26" s="27"/>
       <c r="AI26" s="19" t="s">
         <v>46</v>
       </c>
@@ -2810,10 +2827,10 @@
       <c r="AL26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="22"/>
-      <c r="AQ26" s="22"/>
+      <c r="AM26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="13">
@@ -2822,31 +2839,31 @@
       <c r="B27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="22">
         <v>52.5500646520401</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>-131.3520307132</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="23">
         <v>5.0</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="24">
         <v>348.4</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="24">
         <v>61.1</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>194.0</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>5.0</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16"/>
@@ -2884,12 +2901,12 @@
       <c r="AD27" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
       <c r="AG27" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH27" s="26"/>
+      <c r="AH27" s="27"/>
       <c r="AI27" s="19" t="s">
         <v>46</v>
       </c>
@@ -2902,10 +2919,10 @@
       <c r="AL27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="22"/>
-      <c r="AQ27" s="22"/>
+      <c r="AM27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="13">
@@ -2914,31 +2931,31 @@
       <c r="B28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="22">
         <v>52.5502545532388</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>-131.351524577136</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="23">
         <v>5.0</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="24">
         <v>355.0</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="24">
         <v>69.3</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>163.0</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>4.0</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
@@ -2976,12 +2993,12 @@
       <c r="AD28" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
       <c r="AG28" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH28" s="26"/>
+      <c r="AH28" s="27"/>
       <c r="AI28" s="19" t="s">
         <v>46</v>
       </c>
@@ -2994,10 +3011,10 @@
       <c r="AL28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
+      <c r="AM28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="13">
@@ -3006,31 +3023,31 @@
       <c r="B29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="22">
         <v>52.5503546269045</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="22">
         <v>-131.351013633724</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="23">
         <v>5.0</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="24">
         <v>16.3</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="24">
         <v>72.4</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>297.0</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>3.0</v>
       </c>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
@@ -3068,12 +3085,12 @@
       <c r="AD29" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
       <c r="AG29" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH29" s="26"/>
+      <c r="AH29" s="27"/>
       <c r="AI29" s="19" t="s">
         <v>46</v>
       </c>
@@ -3086,10 +3103,10 @@
       <c r="AL29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="22"/>
-      <c r="AQ29" s="22"/>
+      <c r="AM29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="13">
@@ -3098,31 +3115,31 @@
       <c r="B30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="22">
         <v>52.5566716768322</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <v>-131.349876124428</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="23">
         <v>5.0</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="24">
         <v>359.3</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="24">
         <v>67.0</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>415.0</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>2.0</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="16"/>
@@ -3160,12 +3177,12 @@
       <c r="AD30" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
       <c r="AG30" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH30" s="26"/>
+      <c r="AH30" s="27"/>
       <c r="AI30" s="19" t="s">
         <v>46</v>
       </c>
@@ -3178,10 +3195,10 @@
       <c r="AL30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="22"/>
-      <c r="AQ30" s="22"/>
+      <c r="AM30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="13">
@@ -3190,31 +3207,31 @@
       <c r="B31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="22">
         <v>52.5594395523081</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="22">
         <v>-131.346335510354</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="23">
         <v>5.0</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="24">
         <v>4.9</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="24">
         <v>61.3</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="23">
         <v>173.0</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <v>4.0</v>
       </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -3252,12 +3269,12 @@
       <c r="AD31" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
       <c r="AG31" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH31" s="26"/>
+      <c r="AH31" s="27"/>
       <c r="AI31" s="19" t="s">
         <v>46</v>
       </c>
@@ -3270,10 +3287,10 @@
       <c r="AL31" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="22"/>
-      <c r="AQ31" s="22"/>
+      <c r="AM31" s="28"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="13">
@@ -3282,31 +3299,31 @@
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <v>52.5648896715563</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <v>-131.348102104684</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="23">
         <v>6.0</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="24">
         <v>325.8</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="24">
         <v>62.6</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="23">
         <v>152.0</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="23">
         <v>4.0</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -3344,12 +3361,12 @@
       <c r="AD32" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
       <c r="AG32" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH32" s="26"/>
+      <c r="AH32" s="27"/>
       <c r="AI32" s="19" t="s">
         <v>46</v>
       </c>
@@ -3362,10 +3379,10 @@
       <c r="AL32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="22"/>
-      <c r="AQ32" s="22"/>
+      <c r="AM32" s="28"/>
+      <c r="AO32" s="28"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="13">
@@ -3374,31 +3391,31 @@
       <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="22">
         <v>52.5637277902585</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="22">
         <v>-131.347744910277</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>5.0</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="24">
         <v>313.5</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="24">
         <v>59.6</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>288.0</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="23">
         <v>3.0</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="16"/>
@@ -3436,12 +3453,12 @@
       <c r="AD33" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
       <c r="AG33" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH33" s="26"/>
+      <c r="AH33" s="27"/>
       <c r="AI33" s="19" t="s">
         <v>46</v>
       </c>
@@ -3454,10 +3471,10 @@
       <c r="AL33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="22"/>
+      <c r="AM33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="13">
@@ -3466,31 +3483,31 @@
       <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="22">
         <v>52.5641046341006</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="22">
         <v>-131.346879687506</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="23">
         <v>5.0</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="24">
         <v>351.4</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="24">
         <v>70.9</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="23">
         <v>188.0</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <v>4.0</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -3528,12 +3545,12 @@
       <c r="AD34" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="25"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
       <c r="AG34" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH34" s="26"/>
+      <c r="AH34" s="27"/>
       <c r="AI34" s="19" t="s">
         <v>46</v>
       </c>
@@ -3546,10 +3563,10 @@
       <c r="AL34" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="22"/>
-      <c r="AQ34" s="22"/>
+      <c r="AM34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="13">
@@ -3558,31 +3575,31 @@
       <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="22">
         <v>52.565982197755</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="22">
         <v>-131.347422654832</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="23">
         <v>5.0</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="24">
         <v>297.8</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="24">
         <v>69.4</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>282.0</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <v>3.0</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
@@ -3620,12 +3637,12 @@
       <c r="AD35" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="25"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
       <c r="AG35" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH35" s="26"/>
+      <c r="AH35" s="27"/>
       <c r="AI35" s="19" t="s">
         <v>46</v>
       </c>
@@ -3638,10 +3655,10 @@
       <c r="AL35" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM35" s="27"/>
-      <c r="AO35" s="27"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
+      <c r="AM35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="13">
@@ -3650,31 +3667,31 @@
       <c r="B36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="22">
         <v>52.5654198487179</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="22">
         <v>-131.348573123748</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="23">
         <v>6.0</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="24">
         <v>341.0</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="24">
         <v>57.0</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>486.0</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <v>2.0</v>
       </c>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
@@ -3712,12 +3729,12 @@
       <c r="AD36" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
       <c r="AG36" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH36" s="26"/>
+      <c r="AH36" s="27"/>
       <c r="AI36" s="19" t="s">
         <v>46</v>
       </c>
@@ -3730,10 +3747,10 @@
       <c r="AL36" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
+      <c r="AM36" s="28"/>
+      <c r="AO36" s="28"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="13">
@@ -3742,31 +3759,31 @@
       <c r="B37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="22">
         <v>52.565982197755</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="22">
         <v>-131.347422654832</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="23">
         <v>5.0</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="24">
         <v>333.3</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="24">
         <v>67.1</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="23">
         <v>540.0</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <v>2.0</v>
       </c>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
@@ -3804,12 +3821,12 @@
       <c r="AD37" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
       <c r="AG37" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH37" s="26"/>
+      <c r="AH37" s="27"/>
       <c r="AI37" s="19" t="s">
         <v>46</v>
       </c>
@@ -3822,10 +3839,10 @@
       <c r="AL37" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM37" s="27"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
+      <c r="AM37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="13">
@@ -3834,31 +3851,31 @@
       <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="22">
         <v>52.5675434644948</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>-131.350309900985</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="23">
         <v>5.0</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="24">
         <v>319.4</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="24">
         <v>49.1</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>400.0</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="23">
         <v>2.0</v>
       </c>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="16"/>
@@ -3896,12 +3913,12 @@
       <c r="AD38" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="25"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
       <c r="AG38" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH38" s="26"/>
+      <c r="AH38" s="27"/>
       <c r="AI38" s="19" t="s">
         <v>46</v>
       </c>
@@ -3914,10 +3931,10 @@
       <c r="AL38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="22"/>
-      <c r="AQ38" s="22"/>
+      <c r="AM38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="13">
@@ -3926,31 +3943,31 @@
       <c r="B39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="22">
         <v>52.5672944770416</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>-131.349263594605</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="23">
         <v>5.0</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="24">
         <v>323.5</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="24">
         <v>52.4</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="23">
         <v>229.0</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <v>3.0</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
       <c r="P39" s="16"/>
@@ -3988,12 +4005,12 @@
       <c r="AD39" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
       <c r="AG39" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH39" s="26"/>
+      <c r="AH39" s="27"/>
       <c r="AI39" s="19" t="s">
         <v>46</v>
       </c>
@@ -4006,10 +4023,10 @@
       <c r="AL39" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="22"/>
-      <c r="AQ39" s="22"/>
+      <c r="AM39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="13">
@@ -4018,31 +4035,31 @@
       <c r="B40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="22">
         <v>52.5664079273727</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>-131.348625931308</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>7.0</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="24">
         <v>318.2</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="24">
         <v>42.0</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>471.0</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <v>2.0</v>
       </c>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
@@ -4080,12 +4097,12 @@
       <c r="AD40" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
       <c r="AG40" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH40" s="26"/>
+      <c r="AH40" s="27"/>
       <c r="AI40" s="19" t="s">
         <v>46</v>
       </c>
@@ -4098,10 +4115,10 @@
       <c r="AL40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
+      <c r="AM40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="23"/>
+      <c r="AQ40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="13">
@@ -4110,31 +4127,31 @@
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="22">
         <v>52.5533021835807</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>-131.347483181033</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="23">
         <v>9.0</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="24">
         <v>334.6</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="24">
         <v>64.1</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="23">
         <v>378.0</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="23">
         <v>2.0</v>
       </c>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
@@ -4172,12 +4189,12 @@
       <c r="AD41" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
       <c r="AG41" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH41" s="26"/>
+      <c r="AH41" s="27"/>
       <c r="AI41" s="19" t="s">
         <v>46</v>
       </c>
@@ -4190,10 +4207,10 @@
       <c r="AL41" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="22"/>
-      <c r="AQ41" s="22"/>
+      <c r="AM41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="13">
@@ -4202,31 +4219,31 @@
       <c r="B42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="22">
         <v>52.5734591502317</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>-131.35579204067</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="23">
         <v>7.0</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="29">
         <v>160.3</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="29">
         <v>-70.6</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <v>88.0</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="23">
         <v>4.0</v>
       </c>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
       <c r="P42" s="16"/>
@@ -4264,12 +4281,12 @@
       <c r="AD42" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
       <c r="AG42" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH42" s="26"/>
+      <c r="AH42" s="27"/>
       <c r="AI42" s="19" t="s">
         <v>46</v>
       </c>
@@ -4282,10 +4299,10 @@
       <c r="AL42" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="22"/>
-      <c r="AQ42" s="22"/>
+      <c r="AM42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="23"/>
+      <c r="AQ42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="13">
@@ -4294,31 +4311,31 @@
       <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="22">
         <v>52.5748804004561</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>-131.361181697057</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="23">
         <v>6.0</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="24">
         <v>355.1</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="24">
         <v>48.8</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>394.0</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="23">
         <v>2.0</v>
       </c>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
       <c r="P43" s="16"/>
@@ -4356,12 +4373,12 @@
       <c r="AD43" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
       <c r="AG43" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH43" s="26"/>
+      <c r="AH43" s="27"/>
       <c r="AI43" s="19" t="s">
         <v>46</v>
       </c>
@@ -4374,10 +4391,10 @@
       <c r="AL43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="22"/>
-      <c r="AQ43" s="22"/>
+      <c r="AM43" s="28"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="13">
@@ -4386,31 +4403,31 @@
       <c r="B44" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="22">
         <v>52.5783703009314</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="22">
         <v>-131.366535555976</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="23">
         <v>6.0</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="24">
         <v>321.1</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="24">
         <v>65.2</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="23">
         <v>173.0</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="23">
         <v>3.0</v>
       </c>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
@@ -4448,12 +4465,12 @@
       <c r="AD44" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
       <c r="AG44" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH44" s="26"/>
+      <c r="AH44" s="27"/>
       <c r="AI44" s="19" t="s">
         <v>46</v>
       </c>
@@ -4466,10 +4483,10 @@
       <c r="AL44" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
+      <c r="AM44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="13">
@@ -4478,31 +4495,31 @@
       <c r="B45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="22">
         <v>52.5806158999927</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <v>-131.366656551598</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="23">
         <v>5.0</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="24">
         <v>323.2</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="24">
         <v>47.2</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="23">
         <v>400.0</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="23">
         <v>2.0</v>
       </c>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
@@ -4540,12 +4557,12 @@
       <c r="AD45" s="12">
         <v>0.0</v>
       </c>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
       <c r="AG45" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH45" s="26"/>
+      <c r="AH45" s="27"/>
       <c r="AI45" s="19" t="s">
         <v>46</v>
       </c>
@@ -4558,14 +4575,14 @@
       <c r="AL45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AM45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="22"/>
-      <c r="AQ45" s="22"/>
+      <c r="AM45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="23"/>
     </row>
     <row r="47">
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>

--- a/vgp_database/Ramsay_Island_lavas.xlsx
+++ b/vgp_database/Ramsay_Island_lavas.xlsx
@@ -1246,7 +1246,9 @@
         <v>0.0</v>
       </c>
       <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
+      <c r="AF9" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG9" s="13">
         <v>1.0</v>
       </c>
@@ -1338,7 +1340,9 @@
         <v>0.0</v>
       </c>
       <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
+      <c r="AF10" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG10" s="13">
         <v>1.0</v>
       </c>
@@ -1430,7 +1434,9 @@
         <v>0.0</v>
       </c>
       <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AF11" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG11" s="13">
         <v>1.0</v>
       </c>
@@ -1522,7 +1528,9 @@
         <v>0.0</v>
       </c>
       <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
+      <c r="AF12" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG12" s="13">
         <v>1.0</v>
       </c>
@@ -1614,7 +1622,9 @@
         <v>0.0</v>
       </c>
       <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
+      <c r="AF13" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG13" s="13">
         <v>1.0</v>
       </c>
@@ -1706,7 +1716,9 @@
         <v>0.0</v>
       </c>
       <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
+      <c r="AF14" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG14" s="13">
         <v>1.0</v>
       </c>
@@ -1798,7 +1810,9 @@
         <v>0.0</v>
       </c>
       <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
+      <c r="AF15" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG15" s="13">
         <v>1.0</v>
       </c>
@@ -1890,7 +1904,9 @@
         <v>0.0</v>
       </c>
       <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
+      <c r="AF16" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG16" s="13">
         <v>1.0</v>
       </c>
@@ -1982,7 +1998,9 @@
         <v>0.0</v>
       </c>
       <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
+      <c r="AF17" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG17" s="13">
         <v>1.0</v>
       </c>
@@ -2074,7 +2092,9 @@
         <v>0.0</v>
       </c>
       <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
+      <c r="AF18" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG18" s="13">
         <v>1.0</v>
       </c>
@@ -2166,7 +2186,9 @@
         <v>0.0</v>
       </c>
       <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
+      <c r="AF19" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG19" s="13">
         <v>1.0</v>
       </c>
@@ -2258,7 +2280,9 @@
         <v>0.0</v>
       </c>
       <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
+      <c r="AF20" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG20" s="13">
         <v>1.0</v>
       </c>
@@ -2350,7 +2374,9 @@
         <v>0.0</v>
       </c>
       <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
+      <c r="AF21" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG21" s="13">
         <v>1.0</v>
       </c>
@@ -2442,7 +2468,9 @@
         <v>0.0</v>
       </c>
       <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
+      <c r="AF22" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG22" s="13">
         <v>1.0</v>
       </c>
@@ -2534,7 +2562,9 @@
         <v>0.0</v>
       </c>
       <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
+      <c r="AF23" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG23" s="13">
         <v>1.0</v>
       </c>
@@ -2626,7 +2656,9 @@
         <v>0.0</v>
       </c>
       <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
+      <c r="AF24" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG24" s="13">
         <v>1.0</v>
       </c>
@@ -2718,7 +2750,9 @@
         <v>0.0</v>
       </c>
       <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="AF25" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG25" s="13">
         <v>1.0</v>
       </c>
@@ -2810,7 +2844,9 @@
         <v>0.0</v>
       </c>
       <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
+      <c r="AF26" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG26" s="13">
         <v>1.0</v>
       </c>
@@ -2902,7 +2938,9 @@
         <v>0.0</v>
       </c>
       <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
+      <c r="AF27" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG27" s="13">
         <v>1.0</v>
       </c>
@@ -2994,7 +3032,9 @@
         <v>0.0</v>
       </c>
       <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
+      <c r="AF28" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG28" s="13">
         <v>1.0</v>
       </c>
@@ -3086,7 +3126,9 @@
         <v>0.0</v>
       </c>
       <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
+      <c r="AF29" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG29" s="13">
         <v>1.0</v>
       </c>
@@ -3178,7 +3220,9 @@
         <v>0.0</v>
       </c>
       <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
+      <c r="AF30" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG30" s="13">
         <v>1.0</v>
       </c>
@@ -3270,7 +3314,9 @@
         <v>0.0</v>
       </c>
       <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
+      <c r="AF31" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG31" s="13">
         <v>1.0</v>
       </c>
@@ -3362,7 +3408,9 @@
         <v>0.0</v>
       </c>
       <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
+      <c r="AF32" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG32" s="13">
         <v>1.0</v>
       </c>
@@ -3454,7 +3502,9 @@
         <v>0.0</v>
       </c>
       <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
+      <c r="AF33" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG33" s="13">
         <v>1.0</v>
       </c>
@@ -3546,7 +3596,9 @@
         <v>0.0</v>
       </c>
       <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
+      <c r="AF34" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG34" s="13">
         <v>1.0</v>
       </c>
@@ -3638,7 +3690,9 @@
         <v>0.0</v>
       </c>
       <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
+      <c r="AF35" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG35" s="13">
         <v>1.0</v>
       </c>
@@ -3730,7 +3784,9 @@
         <v>0.0</v>
       </c>
       <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
+      <c r="AF36" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG36" s="13">
         <v>1.0</v>
       </c>
@@ -3822,7 +3878,9 @@
         <v>0.0</v>
       </c>
       <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
+      <c r="AF37" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG37" s="13">
         <v>1.0</v>
       </c>
@@ -3914,7 +3972,9 @@
         <v>0.0</v>
       </c>
       <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
+      <c r="AF38" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG38" s="13">
         <v>1.0</v>
       </c>
@@ -4006,7 +4066,9 @@
         <v>0.0</v>
       </c>
       <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
+      <c r="AF39" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG39" s="13">
         <v>1.0</v>
       </c>
@@ -4098,7 +4160,9 @@
         <v>0.0</v>
       </c>
       <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
+      <c r="AF40" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG40" s="13">
         <v>1.0</v>
       </c>
@@ -4190,7 +4254,9 @@
         <v>0.0</v>
       </c>
       <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
+      <c r="AF41" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG41" s="13">
         <v>1.0</v>
       </c>
@@ -4282,7 +4348,9 @@
         <v>0.0</v>
       </c>
       <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
+      <c r="AF42" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG42" s="13">
         <v>1.0</v>
       </c>
@@ -4374,7 +4442,9 @@
         <v>0.0</v>
       </c>
       <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
+      <c r="AF43" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG43" s="13">
         <v>1.0</v>
       </c>
@@ -4466,7 +4536,9 @@
         <v>0.0</v>
       </c>
       <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
+      <c r="AF44" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG44" s="13">
         <v>1.0</v>
       </c>
@@ -4558,7 +4630,9 @@
         <v>0.0</v>
       </c>
       <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
+      <c r="AF45" s="12">
+        <v>0.0</v>
+      </c>
       <c r="AG45" s="13">
         <v>1.0</v>
       </c>
